--- a/TD 4/exo3.xlsx
+++ b/TD 4/exo3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bedanian/Desktop/Interest Rate Credit Risk/Credit-Risk/TD 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370493BE-BC2C-C045-B05E-B0C64F547D59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67007115-2B4B-4D4B-988C-A0FCE3CE4F0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1400" windowWidth="27640" windowHeight="16160" xr2:uid="{D7CF4C21-E1A7-0945-8B89-F51F0808E645}"/>
+    <workbookView xWindow="1160" yWindow="940" windowWidth="27640" windowHeight="16160" xr2:uid="{D7CF4C21-E1A7-0945-8B89-F51F0808E645}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Maturity</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>future</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C40"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -420,6 +423,9 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1">
         <f>A2-1</f>
         <v>41185</v>
@@ -434,7 +440,11 @@
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="C2" s="2">
-        <v>0.99999736111807425</v>
+        <f>-LOG(D2,2)/B2</f>
+        <v>1.3705584803677649E-3</v>
+      </c>
+      <c r="D2">
+        <v>0.99999736111807502</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -451,7 +461,11 @@
         <v>9.166666666666666E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>0.99989367797224216</v>
+        <f>-LOG(D3,2)/B3</f>
+        <v>1.6734372779262114E-3</v>
+      </c>
+      <c r="D3">
+        <v>0.99989367797224227</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -468,7 +482,11 @@
         <v>0.25555555555555554</v>
       </c>
       <c r="C4" s="2">
-        <v>0.99943043569947654</v>
+        <f t="shared" ref="C3:C40" si="1">-LOG(D4,2)/B4</f>
+        <v>3.2162935632225938E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.99943043569947743</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -485,7 +503,11 @@
         <v>0.46666666666666667</v>
       </c>
       <c r="C5" s="2">
-        <v>0.99783346282110719</v>
+        <f t="shared" si="1"/>
+        <v>5.8310004195104041E-3</v>
+      </c>
+      <c r="D5">
+        <v>0.99811563162198891</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -502,7 +524,11 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="C6" s="2">
-        <v>0.99779055910528747</v>
+        <f t="shared" si="1"/>
+        <v>6.3120183989998696E-3</v>
+      </c>
+      <c r="D6">
+        <v>0.99779055910528791</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -519,7 +545,11 @@
         <v>0.71944444444444444</v>
       </c>
       <c r="C7" s="2">
-        <v>0.99729398218196796</v>
+        <f t="shared" si="1"/>
+        <v>4.8667279569326585E-3</v>
+      </c>
+      <c r="D7">
+        <v>0.99757599842772837</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -536,7 +566,11 @@
         <v>0.97222222222222221</v>
       </c>
       <c r="C8" s="2">
-        <v>0.99666918134628368</v>
+        <f t="shared" si="1"/>
+        <v>4.5313369906776957E-3</v>
+      </c>
+      <c r="D8">
+        <v>0.99695102090995347</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -553,7 +587,11 @@
         <v>1.0138888888888888</v>
       </c>
       <c r="C9" s="2">
-        <v>0.99654593942285863</v>
+        <f t="shared" si="1"/>
+        <v>4.5308689482787042E-3</v>
+      </c>
+      <c r="D9">
+        <v>0.99682088620554599</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -570,7 +608,11 @@
         <v>1.2250000000000001</v>
       </c>
       <c r="C10" s="2">
-        <v>0.99597180741990488</v>
+        <f t="shared" si="1"/>
+        <v>4.4206367997488959E-3</v>
+      </c>
+      <c r="D10">
+        <v>0.99625344977915942</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -587,7 +629,11 @@
         <v>1.4777777777777779</v>
       </c>
       <c r="C11" s="2">
-        <v>0.99513917999655277</v>
+        <f t="shared" si="1"/>
+        <v>4.4809648660994192E-3</v>
+      </c>
+      <c r="D11">
+        <v>0.99542058690421098</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -604,7 +650,11 @@
         <v>2.0277777777777777</v>
       </c>
       <c r="C12" s="2">
-        <v>0.99043077533552037</v>
+        <f t="shared" si="1"/>
+        <v>6.8419088778492931E-3</v>
+      </c>
+      <c r="D12">
+        <v>0.99042945754589151</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -616,7 +666,11 @@
         <v>3.0472222222222221</v>
       </c>
       <c r="C13" s="2">
-        <v>0.98232623626269966</v>
+        <f t="shared" si="1"/>
+        <v>8.4431770750637673E-3</v>
+      </c>
+      <c r="D13">
+        <v>0.98232462018082445</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -628,7 +682,11 @@
         <v>4.0583333333333336</v>
       </c>
       <c r="C14" s="2">
-        <v>0.96994464719326268</v>
+        <f t="shared" si="1"/>
+        <v>1.0848970442836701E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.96994258896331575</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -640,7 +698,11 @@
         <v>5.072222222222222</v>
       </c>
       <c r="C15" s="2">
-        <v>0.95324657537564106</v>
+        <f t="shared" si="1"/>
+        <v>1.3619773362140595E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.95324402150577681</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -652,10 +714,14 @@
         <v>6.0861111111111112</v>
       </c>
       <c r="C16" s="2">
-        <v>0.93122030139621326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>1.6430632971747808E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.93303385951766438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43741</v>
       </c>
@@ -664,10 +730,14 @@
         <v>7.1</v>
       </c>
       <c r="C17" s="2">
-        <v>0.90954951106979798</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>1.9270374323324523E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.90952193835690198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44107</v>
       </c>
@@ -676,10 +746,14 @@
         <v>8.1166666666666671</v>
       </c>
       <c r="C18" s="2">
-        <v>0.88448195381708505</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.1338773822703553E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.886873525571785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44472</v>
       </c>
@@ -688,10 +762,14 @@
         <v>9.1305555555555564</v>
       </c>
       <c r="C19" s="2">
-        <v>0.85988894558465956</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.3427261009191191E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.86220097068082036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44837</v>
       </c>
@@ -700,10 +778,14 @@
         <v>10.144444444444444</v>
       </c>
       <c r="C20" s="2">
-        <v>0.83570088632968154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5545385444984144E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.83558370108045799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45202</v>
       </c>
@@ -712,10 +794,14 @@
         <v>11.158333333333333</v>
       </c>
       <c r="C21" s="2">
-        <v>0.81009044862641955</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.6844696083589061E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.81251025827221846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45568</v>
       </c>
@@ -724,10 +810,14 @@
         <v>12.175000000000001</v>
       </c>
       <c r="C22" s="2">
-        <v>0.78484821061144205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.8167546934760725E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.78843302681145477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45933</v>
       </c>
@@ -736,10 +826,14 @@
         <v>13.188888888888888</v>
       </c>
       <c r="C23" s="2">
-        <v>0.7601133057309265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.9508381387938463E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.76356201333076712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>46298</v>
       </c>
@@ -748,10 +842,14 @@
         <v>14.202777777777778</v>
       </c>
       <c r="C24" s="2">
-        <v>0.73581556840212436</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.0872502092523825E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.73791406171974094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>46664</v>
       </c>
@@ -760,10 +858,14 @@
         <v>15.219444444444445</v>
       </c>
       <c r="C25" s="2">
-        <v>0.71188962720098881</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.226578119715455E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.71149855684986818</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>47030</v>
       </c>
@@ -772,10 +874,14 @@
         <v>16.236111111111111</v>
       </c>
       <c r="C26" s="2">
-        <v>0.69292841390187032</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.2584569467944483E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.6930125142822815</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>47395</v>
       </c>
@@ -784,10 +890,14 @@
         <v>17.25</v>
       </c>
       <c r="C27" s="2">
-        <v>0.67435804202724126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.2913438839169945E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.67466497881002019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>47760</v>
       </c>
@@ -796,10 +906,14 @@
         <v>18.263888888888889</v>
       </c>
       <c r="C28" s="2">
-        <v>0.65612577865871391</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.3252319698808215E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.65641646315854141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>48125</v>
       </c>
@@ -808,10 +922,14 @@
         <v>19.277777777777779</v>
       </c>
       <c r="C29" s="2">
-        <v>0.63823162379628828</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.3600601941698519E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.6382772192353231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>48491</v>
       </c>
@@ -820,10 +938,14 @@
         <v>20.294444444444444</v>
       </c>
       <c r="C30" s="2">
-        <v>0.62062747868282386</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.3958787713394813E-2</v>
+      </c>
+      <c r="D30">
+        <v>0.62020852833733209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>48856</v>
       </c>
@@ -832,10 +954,14 @@
         <v>21.308333333333334</v>
       </c>
       <c r="C31" s="2">
-        <v>0.60563625702488799</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.3988367288250165E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.60531774110530534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>49221</v>
       </c>
@@ -844,10 +970,14 @@
         <v>22.322222222222223</v>
       </c>
       <c r="C32" s="2">
-        <v>0.59093169103061416</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.4024223633830224E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.59070253937882511</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>49586</v>
       </c>
@@ -856,10 +986,14 @@
         <v>23.336111111111112</v>
       </c>
       <c r="C33" s="2">
-        <v>0.57651378070000248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.40656845881145E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.57635891329639155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>49952</v>
       </c>
@@ -868,10 +1002,14 @@
         <v>24.352777777777778</v>
       </c>
       <c r="C34" s="2">
-        <v>0.56234381026684199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.4112282923463605E-2</v>
+      </c>
+      <c r="D34">
+        <v>0.5622451259069714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>50317</v>
       </c>
@@ -880,10 +1018,14 @@
         <v>25.366666666666667</v>
       </c>
       <c r="C35" s="2">
-        <v>0.54849999662153714</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.416339573361226E-2</v>
+      </c>
+      <c r="D35">
+        <v>0.54843347151399635</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>50682</v>
       </c>
@@ -892,10 +1034,14 @@
         <v>26.380555555555556</v>
       </c>
       <c r="C36" s="2">
-        <v>0.53494283863989434</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.4218711138075772E-2</v>
+      </c>
+      <c r="D36">
+        <v>0.53488156627582739</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>51047</v>
       </c>
@@ -904,10 +1050,14 @@
         <v>27.394444444444446</v>
       </c>
       <c r="C37" s="2">
-        <v>0.52167233632191357</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.4277906717066861E-2</v>
+      </c>
+      <c r="D37">
+        <v>0.52158554347023633</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>51413</v>
       </c>
@@ -916,10 +1066,14 @@
         <v>28.411111111111111</v>
       </c>
       <c r="C38" s="2">
-        <v>0.50865291748498032</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.4340847370770915E-2</v>
+      </c>
+      <c r="D38">
+        <v>0.50850658779751201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>51778</v>
       </c>
@@ -928,10 +1082,14 @@
         <v>29.425000000000001</v>
       </c>
       <c r="C39" s="2">
-        <v>0.49595651185230638</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.4407043224713565E-2</v>
+      </c>
+      <c r="D39">
+        <v>0.49571154114750104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>52142</v>
       </c>
@@ -940,7 +1098,11 @@
         <v>30.43611111111111</v>
       </c>
       <c r="C40" s="2">
-        <v>0.48358076119827814</v>
+        <f t="shared" si="1"/>
+        <v>3.4476271405501809E-2</v>
+      </c>
+      <c r="D40">
+        <v>0.48319464553420399</v>
       </c>
     </row>
   </sheetData>
